--- a/src/excelExportAndFileIO/jeu_de_test_UK.xlsx
+++ b/src/excelExportAndFileIO/jeu_de_test_UK.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galinabikono\workspace\seleniumtest\src\excelExportAndFileIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\galinabikono\workspace\serverseleniumtest\SELENIUMTEST2\src\excelExportAndFileIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>firstname</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Ps1960m+</t>
-  </si>
-  <si>
-    <t>robertlavoisier@mailinator.com</t>
   </si>
   <si>
     <t xml:space="preserve">phone number </t>
@@ -149,9 +146,6 @@
     <t>neildenver@mailinator.com</t>
   </si>
   <si>
-    <t>Yno#wuc6</t>
-  </si>
-  <si>
     <t>SW1A 2AB</t>
   </si>
   <si>
@@ -171,6 +165,12 @@
   </si>
   <si>
     <t>1GCHG35C881135218</t>
+  </si>
+  <si>
+    <t>Yno#wuc8</t>
+  </si>
+  <si>
+    <t>robertlavoisier@mailinator.com</t>
   </si>
 </sst>
 </file>
@@ -248,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -258,6 +258,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -616,46 +624,46 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
-        <v>27</v>
-      </c>
       <c r="R1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -663,13 +671,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5">
         <v>33182</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -684,28 +692,28 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
       <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
         <v>28</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
       </c>
       <c r="Q2" s="5">
         <v>42740</v>
@@ -722,22 +730,22 @@
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43161</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5">
-        <v>20150</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2">
         <v>448006891001</v>
@@ -746,28 +754,28 @@
         <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
       <c r="M3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
         <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
       </c>
       <c r="Q3" s="5">
         <v>42771</v>
@@ -784,22 +792,22 @@
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
       </c>
       <c r="C4" s="5">
         <v>20151</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2">
         <v>448006891002</v>
@@ -808,28 +816,28 @@
         <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>44</v>
+      <c r="M4" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
         <v>28</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
       </c>
       <c r="Q4" s="5">
         <v>42799</v>
@@ -841,6 +849,68 @@
         <v>44044</v>
       </c>
       <c r="T4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="12">
+        <v>43161</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11">
+        <v>448006891001</v>
+      </c>
+      <c r="H5" s="10">
+        <v>33</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>42771</v>
+      </c>
+      <c r="R5" s="13">
+        <v>4917610000000000</v>
+      </c>
+      <c r="S5" s="14">
+        <v>44044</v>
+      </c>
+      <c r="T5" s="10">
         <v>345</v>
       </c>
     </row>
@@ -853,8 +923,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
